--- a/Excel/TI/Mon_TI_2024_03_17.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,230 +526,218 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>dom_ext</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>delta_dom_ext</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>delta_B2B</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_de_B2B</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>M+1_H_A</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>M+1_team</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>M-1_vs</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>M-1_score</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>M-2_vs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>M-2_score</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>M-3_vs</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>M-3_score</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>M+2_H_A</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>M+2_team</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>M+3_H_A</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>M+3_team</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>M+4_H_A</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>M+4_team</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>M+5_H_A</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>M+5_team</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>vs or @</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Delta</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>delta_B2B</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>nombre_de_B2B</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>53</v>
+        <v>37.5</v>
       </c>
       <c r="H2" t="n">
-        <v>54.5</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="P2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>47</v>
-      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>35</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -759,135 +747,133 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Dejounte Murray</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>39.8</v>
+        <v>40.4</v>
       </c>
       <c r="G3" t="n">
-        <v>42</v>
+        <v>35.9</v>
       </c>
       <c r="H3" t="n">
-        <v>40.5</v>
+        <v>31.7</v>
       </c>
       <c r="I3" t="n">
         <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="P3" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="R3" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>59</v>
-      </c>
+      <c r="T3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
-      <c r="X3" t="n">
-        <v>47</v>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -897,7 +883,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -907,29 +893,39 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -940,132 +936,136 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>27.6</v>
+        <v>36.6</v>
       </c>
       <c r="G4" t="n">
-        <v>36.7</v>
+        <v>35.2</v>
       </c>
       <c r="H4" t="n">
-        <v>36.7</v>
+        <v>41</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="n">
         <v>38</v>
       </c>
-      <c r="R4" t="n">
-        <v>14</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>35</v>
-      </c>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>39</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>SAS</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1086,16 +1086,16 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>27.8</v>
+        <v>30.2</v>
       </c>
       <c r="G5" t="n">
-        <v>33.9</v>
+        <v>35.1</v>
       </c>
       <c r="H5" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -1104,112 +1104,110 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
       <c r="N5" t="n">
+        <v>44</v>
+      </c>
+      <c r="O5" t="n">
         <v>35</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="n">
         <v>13</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>24</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
         <v>27</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
         <v>40</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>27</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X5" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>NOP</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1222,11 +1220,7 @@
           <t>Jaylen Brown</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>G</t>
@@ -1234,140 +1228,142 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="G6" t="n">
         <v>33.9</v>
       </c>
       <c r="H6" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="I6" t="n">
         <v>10</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
+        <v>54</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="n">
         <v>32</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>59</v>
       </c>
-      <c r="P6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>40</v>
-      </c>
-      <c r="R6" t="n">
-        <v>40</v>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>WAS</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
         <v>28</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
         <v>53</v>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>MIL</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ6" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1378,13 +1374,13 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>40.2</v>
+        <v>33.8</v>
       </c>
       <c r="G7" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="H7" t="n">
-        <v>35.6</v>
+        <v>31.6</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1393,99 +1389,83 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R7" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="T7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB7" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1493,7 +1473,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1501,21 +1481,31 @@
           <t>vs</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1526,13 +1516,13 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>35.2</v>
+        <v>33.4</v>
       </c>
       <c r="G8" t="n">
-        <v>33.2</v>
+        <v>32.5</v>
       </c>
       <c r="H8" t="n">
-        <v>31.3</v>
+        <v>35.1</v>
       </c>
       <c r="I8" t="n">
         <v>11</v>
@@ -1544,52 +1534,44 @@
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
         <v>27</v>
       </c>
       <c r="O8" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="P8" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="R8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>29</v>
-      </c>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1604,178 +1586,174 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>27.8</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>32.8</v>
+        <v>31.2</v>
       </c>
       <c r="H9" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="I9" t="n">
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="O9" t="n">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>17</v>
+      </c>
+      <c r="R9" t="n">
         <v>33</v>
       </c>
-      <c r="P9" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>44</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9</v>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>62</v>
-      </c>
+      <c r="T9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>36</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
+      <c r="AB9" t="n">
+        <v>34</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
+      <c r="AD9" t="n">
+        <v>39</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1793,133 +1771,145 @@
           <t>vs</t>
         </is>
       </c>
-      <c r="AJ9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Deni Avdija</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>34.4</v>
+        <v>30.4</v>
       </c>
       <c r="G10" t="n">
-        <v>32.1</v>
+        <v>31.1</v>
       </c>
       <c r="H10" t="n">
-        <v>31.5</v>
+        <v>24.9</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O10" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P10" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="n">
         <v>36</v>
       </c>
       <c r="R10" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-2.8</v>
       </c>
       <c r="V10" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="X10" t="n">
-        <v>31</v>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>49</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>19</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1929,131 +1919,133 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>26.6</v>
+        <v>32.4</v>
       </c>
       <c r="G11" t="n">
-        <v>31.3</v>
+        <v>30.2</v>
       </c>
       <c r="H11" t="n">
-        <v>31.1</v>
+        <v>26.9</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
         <v>32</v>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>34</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X11" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2063,7 +2055,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2073,139 +2065,141 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Questionable</t>
+          <t>Day-To-Day</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H12" t="n">
         <v>31.4</v>
       </c>
-      <c r="G12" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27.1</v>
-      </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>35</v>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="n">
         <v>16</v>
       </c>
-      <c r="Q12" t="n">
-        <v>36</v>
-      </c>
       <c r="R12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>23</v>
-      </c>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>62</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2215,39 +2209,49 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ12" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2256,25 +2260,21 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="G13" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="H13" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -2283,123 +2283,119 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
         <v>36</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>49</v>
-      </c>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X13" t="n">
-        <v>19</v>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
+      <c r="AB13" t="n">
+        <v>37</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ13" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>10</v>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2410,98 +2406,92 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>56</v>
+      </c>
+      <c r="P14" t="n">
         <v>32</v>
       </c>
-      <c r="G14" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>24</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>39</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
         <v>29</v>
       </c>
-      <c r="O14" t="n">
-        <v>9</v>
-      </c>
-      <c r="P14" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>55</v>
-      </c>
-      <c r="R14" t="n">
-        <v>47</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>10</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X14" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2516,60 +2506,70 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ14" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
+        <v>25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H15" t="n">
         <v>29.2</v>
       </c>
-      <c r="G15" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>26.4</v>
-      </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -2578,222 +2578,220 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>32</v>
-      </c>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>36</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
+      <c r="AB15" t="n">
+        <v>21</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Kristaps Porzingis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>17.2</v>
+        <v>39.8</v>
       </c>
       <c r="G16" t="n">
-        <v>25.7</v>
+        <v>37.1</v>
       </c>
       <c r="H16" t="n">
-        <v>29.1</v>
+        <v>33.5</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>14</v>
-      </c>
-      <c r="O16" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R16" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>21</v>
-      </c>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>57</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>28</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -2803,7 +2801,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -2813,62 +2811,72 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>25.4</v>
       </c>
       <c r="G17" t="n">
-        <v>25.5</v>
+        <v>35</v>
       </c>
       <c r="H17" t="n">
-        <v>30.7</v>
+        <v>37.6</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2878,94 +2886,92 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>39</v>
-      </c>
-      <c r="P17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>38</v>
-      </c>
-      <c r="R17" t="n">
-        <v>9</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>29</v>
-      </c>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>43</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2973,21 +2979,31 @@
           <t>vs</t>
         </is>
       </c>
-      <c r="AJ17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2997,33 +3013,33 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>39.2</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>40.5</v>
+        <v>30.3</v>
       </c>
       <c r="H18" t="n">
-        <v>41.4</v>
+        <v>27.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -3035,10 +3051,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P18" t="n">
+        <v>42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -3046,84 +3060,74 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v>39</v>
-      </c>
+      <c r="T18" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3131,21 +3135,31 @@
           <t>@</t>
         </is>
       </c>
-      <c r="AJ18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3155,107 +3169,105 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>39.8</v>
+        <v>22.4</v>
       </c>
       <c r="G19" t="n">
-        <v>37.1</v>
+        <v>24.5</v>
       </c>
       <c r="H19" t="n">
-        <v>33.5</v>
+        <v>23.3</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>30</v>
-      </c>
-      <c r="P19" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>39</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V19" t="n">
-        <v>57</v>
-      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X19" t="n">
-        <v>28</v>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>12</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3265,39 +3277,49 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ19" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3312,25 +3334,25 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>25.4</v>
+        <v>28.4</v>
       </c>
       <c r="G20" t="n">
-        <v>35</v>
+        <v>22.3</v>
       </c>
       <c r="H20" t="n">
-        <v>37.6</v>
+        <v>26.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3365,99 +3387,99 @@
           <t>@</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V20" t="n">
-        <v>43</v>
-      </c>
+      <c r="T20" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>9</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3467,24 +3489,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>22.4</v>
+        <v>7.8</v>
       </c>
       <c r="G21" t="n">
-        <v>24.5</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>23.3</v>
+        <v>18.7</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -3525,77 +3547,67 @@
           <t>vs</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>12</v>
-      </c>
+      <c r="T21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3603,331 +3615,21 @@
           <t>vs</t>
         </is>
       </c>
-      <c r="AJ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Tyler Herro</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V22" t="n">
-        <v>9</v>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ22" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Russell Westbrook</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G23" t="n">
-        <v>13</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>21</v>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
         <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
